--- a/Code/Results/Cases/Case_2_87/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_87/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.005032193112138</v>
+        <v>1.025648509051531</v>
       </c>
       <c r="D2">
-        <v>1.022677216131513</v>
+        <v>1.031663787263372</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>1.011510869607781</v>
+        <v>1.037012208397243</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046615549205906</v>
+        <v>1.035346229762267</v>
       </c>
       <c r="J2">
-        <v>1.02706342688591</v>
+        <v>1.030816355624612</v>
       </c>
       <c r="K2">
-        <v>1.033829409087048</v>
+        <v>1.034471253199687</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>1.022812135620168</v>
+        <v>1.039804308982901</v>
       </c>
       <c r="N2">
-        <v>1.013024059892069</v>
+        <v>1.014326721090837</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.008732648667867</v>
+        <v>1.026413331397954</v>
       </c>
       <c r="D3">
-        <v>1.025423247282119</v>
+        <v>1.032245844570696</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>1.016180655983911</v>
+        <v>1.038058878356229</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047851237804243</v>
+        <v>1.035540994721242</v>
       </c>
       <c r="J3">
-        <v>1.028988051022239</v>
+        <v>1.031221554070435</v>
       </c>
       <c r="K3">
-        <v>1.035740847274711</v>
+        <v>1.034862528631744</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>1.026610605172731</v>
+        <v>1.040660071045232</v>
       </c>
       <c r="N3">
-        <v>1.013659638946764</v>
+        <v>1.014460439170337</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.011080341362701</v>
+        <v>1.02690849058097</v>
       </c>
       <c r="D4">
-        <v>1.027166837091548</v>
+        <v>1.032622597489315</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>1.0191446601255</v>
+        <v>1.038736779765034</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048624302546767</v>
+        <v>1.035665774165116</v>
       </c>
       <c r="J4">
-        <v>1.030204795835775</v>
+        <v>1.031483335274174</v>
       </c>
       <c r="K4">
-        <v>1.036948076406928</v>
+        <v>1.035115133404566</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>1.029017388988217</v>
+        <v>1.041213843072462</v>
       </c>
       <c r="N4">
-        <v>1.014061471753411</v>
+        <v>1.014546821393938</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.012056457828007</v>
+        <v>1.027116718119278</v>
       </c>
       <c r="D5">
-        <v>1.027892085766031</v>
+        <v>1.032781012211452</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>1.020377400552538</v>
+        <v>1.03902192076283</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048943078987928</v>
+        <v>1.035717932310691</v>
       </c>
       <c r="J5">
-        <v>1.030709638093294</v>
+        <v>1.031593289070143</v>
       </c>
       <c r="K5">
-        <v>1.037448678252276</v>
+        <v>1.035221189288547</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>1.030017360180424</v>
+        <v>1.041446656644217</v>
       </c>
       <c r="N5">
-        <v>1.014228201115847</v>
+        <v>1.014583102049638</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.012219725174968</v>
+        <v>1.027151684066425</v>
       </c>
       <c r="D6">
-        <v>1.028013409293915</v>
+        <v>1.032807612322736</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>1.020583615043558</v>
+        <v>1.039069806031055</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048996241768243</v>
+        <v>1.035726672330742</v>
       </c>
       <c r="J6">
-        <v>1.030794016663721</v>
+        <v>1.031611744959388</v>
       </c>
       <c r="K6">
-        <v>1.037532330634811</v>
+        <v>1.035238988344849</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>1.030184576333415</v>
+        <v>1.041485747496796</v>
       </c>
       <c r="N6">
-        <v>1.014256068219721</v>
+        <v>1.014589191701821</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.01109342648797</v>
+        <v>1.02691127268341</v>
       </c>
       <c r="D7">
-        <v>1.027176558105547</v>
+        <v>1.032624714127427</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>1.01916118381354</v>
+        <v>1.038740589239962</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048628586330107</v>
+        <v>1.035666472281091</v>
       </c>
       <c r="J7">
-        <v>1.030211567575426</v>
+        <v>1.03148480487257</v>
       </c>
       <c r="K7">
-        <v>1.036954792434921</v>
+        <v>1.035116551076705</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>1.029030796677354</v>
+        <v>1.04121695390934</v>
       </c>
       <c r="N7">
-        <v>1.014063708175531</v>
+        <v>1.014547306313579</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.006292667873936</v>
+        <v>1.025906927932406</v>
       </c>
       <c r="D8">
-        <v>1.023612269602674</v>
+        <v>1.031860469824288</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>1.013101279203954</v>
+        <v>1.037365803126916</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047038722647581</v>
+        <v>1.035412309159276</v>
       </c>
       <c r="J8">
-        <v>1.02771989470057</v>
+        <v>1.030953378458003</v>
       </c>
       <c r="K8">
-        <v>1.03448162147037</v>
+        <v>1.034603605276426</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>1.024106662196955</v>
+        <v>1.04009350957546</v>
       </c>
       <c r="N8">
-        <v>1.013240843938471</v>
+        <v>1.014371940992642</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9974590675531696</v>
+        <v>1.024139264464532</v>
       </c>
       <c r="D9">
-        <v>1.017066766945369</v>
+        <v>1.030514787082385</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.00195870905579</v>
+        <v>1.034948169238433</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044028165382111</v>
+        <v>1.034954926092173</v>
       </c>
       <c r="J9">
-        <v>1.023101872870955</v>
+        <v>1.030013848355922</v>
       </c>
       <c r="K9">
-        <v>1.02988888601471</v>
+        <v>1.033695362772354</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.015020087306538</v>
+        <v>1.038114182045377</v>
       </c>
       <c r="N9">
-        <v>1.011715968746008</v>
+        <v>1.014061850817192</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.991294846299544</v>
+        <v>1.022962338711782</v>
       </c>
       <c r="D10">
-        <v>1.01251043594464</v>
+        <v>1.029618443367496</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9941845854150412</v>
+        <v>1.033339775844418</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041871705128132</v>
+        <v>1.034643648885162</v>
       </c>
       <c r="J10">
-        <v>1.019858154095597</v>
+        <v>1.029385479550304</v>
       </c>
       <c r="K10">
-        <v>1.026657425647396</v>
+        <v>1.03308699851809</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.008659638855202</v>
+        <v>1.036794906089588</v>
       </c>
       <c r="N10">
-        <v>1.01064508903301</v>
+        <v>1.013854423200603</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9885547293935846</v>
+        <v>1.022453095595742</v>
       </c>
       <c r="D11">
-        <v>1.010488289514715</v>
+        <v>1.029230521553725</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9907281840939998</v>
+        <v>1.032644133013884</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040900350243789</v>
+        <v>1.034507363871323</v>
       </c>
       <c r="J11">
-        <v>1.018411519997337</v>
+        <v>1.029112923722397</v>
       </c>
       <c r="K11">
-        <v>1.025215085990921</v>
+        <v>1.0328229034554</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.005827097421977</v>
+        <v>1.036223722073807</v>
       </c>
       <c r="N11">
-        <v>1.010167558374086</v>
+        <v>1.013764442983252</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9875257471334639</v>
+        <v>1.022263997655393</v>
       </c>
       <c r="D12">
-        <v>1.009729458841871</v>
+        <v>1.029086461943331</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9894300330754664</v>
+        <v>1.032385861685054</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040533701407512</v>
+        <v>1.034456516884185</v>
       </c>
       <c r="J12">
-        <v>1.017867585885669</v>
+        <v>1.02901161505776</v>
       </c>
       <c r="K12">
-        <v>1.024672601850972</v>
+        <v>1.032724707335139</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.004762577884458</v>
+        <v>1.036011570472438</v>
       </c>
       <c r="N12">
-        <v>1.009988017139126</v>
+        <v>1.013730996235242</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9877469819685712</v>
+        <v>1.022304557173483</v>
       </c>
       <c r="D13">
-        <v>1.009892585093189</v>
+        <v>1.029117361752489</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9897091500354412</v>
+        <v>1.03244125625437</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040612616592428</v>
+        <v>1.034467433891133</v>
       </c>
       <c r="J13">
-        <v>1.017984564283416</v>
+        <v>1.029033349229667</v>
       </c>
       <c r="K13">
-        <v>1.02478927567452</v>
+        <v>1.03274577521913</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.004991491665936</v>
+        <v>1.036057077173183</v>
       </c>
       <c r="N13">
-        <v>1.010026628774849</v>
+        <v>1.013738171760634</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9884699045996749</v>
+        <v>1.022437463516683</v>
       </c>
       <c r="D14">
-        <v>1.010425723647139</v>
+        <v>1.029218612882758</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9906211745180564</v>
+        <v>1.032622781743801</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040870163340859</v>
+        <v>1.034503165422653</v>
       </c>
       <c r="J14">
-        <v>1.01836669427028</v>
+        <v>1.029104550924297</v>
       </c>
       <c r="K14">
-        <v>1.025170383037572</v>
+        <v>1.032814788555948</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.005739360249558</v>
+        <v>1.036206185315047</v>
       </c>
       <c r="N14">
-        <v>1.010152762128762</v>
+        <v>1.013761678753992</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.988913823455094</v>
+        <v>1.022519359182567</v>
       </c>
       <c r="D15">
-        <v>1.010753175630926</v>
+        <v>1.029281001311592</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9911811862420059</v>
+        <v>1.032734641701</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041028065865815</v>
+        <v>1.03452515104865</v>
       </c>
       <c r="J15">
-        <v>1.01860125566903</v>
+        <v>1.029148411486449</v>
       </c>
       <c r="K15">
-        <v>1.025404295348241</v>
+        <v>1.032857296804687</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.006198486512705</v>
+        <v>1.036298057322499</v>
       </c>
       <c r="N15">
-        <v>1.010230187463314</v>
+        <v>1.013776159006975</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9914751600831933</v>
+        <v>1.022996143498615</v>
       </c>
       <c r="D16">
-        <v>1.012643575163771</v>
+        <v>1.02964419283381</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9944120134897584</v>
+        <v>1.033385960343042</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041935362226368</v>
+        <v>1.034652662129156</v>
       </c>
       <c r="J16">
-        <v>1.019953253369744</v>
+        <v>1.029403558409689</v>
       </c>
       <c r="K16">
-        <v>1.026752219153378</v>
+        <v>1.03310451162994</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.008845922247845</v>
+        <v>1.036832815266291</v>
       </c>
       <c r="N16">
-        <v>1.010676482441142</v>
+        <v>1.013860391493774</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9930624626250527</v>
+        <v>1.023295318768535</v>
       </c>
       <c r="D17">
-        <v>1.013815974128356</v>
+        <v>1.02987206823144</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>0.9964139788534991</v>
+        <v>1.03379473069221</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042494285728206</v>
+        <v>1.034732245369298</v>
       </c>
       <c r="J17">
-        <v>1.020789875652167</v>
+        <v>1.029563480757251</v>
       </c>
       <c r="K17">
-        <v>1.027586019483707</v>
+        <v>1.033259404540634</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.010485177523007</v>
+        <v>1.037168274473496</v>
       </c>
       <c r="N17">
-        <v>1.010952668473503</v>
+        <v>1.013913185000255</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9939814986332174</v>
+        <v>1.023469858577912</v>
       </c>
       <c r="D18">
-        <v>1.014495087729263</v>
+        <v>1.030005003372908</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>0.9975730456939773</v>
+        <v>1.034033236854907</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.0428166830582</v>
+        <v>1.034778520159653</v>
       </c>
       <c r="J18">
-        <v>1.021273821865423</v>
+        <v>1.029656715534816</v>
       </c>
       <c r="K18">
-        <v>1.028068221403041</v>
+        <v>1.033349686300734</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.01143380344387</v>
+        <v>1.037363948962091</v>
       </c>
       <c r="N18">
-        <v>1.011112434615553</v>
+        <v>1.013943962838448</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9942937261645516</v>
+        <v>1.023529378191747</v>
       </c>
       <c r="D19">
-        <v>1.014725855552149</v>
+        <v>1.030050334040723</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>0.9979668128788718</v>
+        <v>1.034114574383222</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042926005096853</v>
+        <v>1.034794274091528</v>
       </c>
       <c r="J19">
-        <v>1.02143815736722</v>
+        <v>1.029688498483194</v>
       </c>
       <c r="K19">
-        <v>1.028231945265829</v>
+        <v>1.033380459047769</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.011756001889399</v>
+        <v>1.037430670034133</v>
       </c>
       <c r="N19">
-        <v>1.011166687953014</v>
+        <v>1.01395445460859</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9928928681924182</v>
+        <v>1.023263216365469</v>
       </c>
       <c r="D20">
-        <v>1.013690677988438</v>
+        <v>1.029847617352096</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>0.9962000864037227</v>
+        <v>1.033750865496877</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04243469364523</v>
+        <v>1.034723721809813</v>
       </c>
       <c r="J20">
-        <v>1.020700533899439</v>
+        <v>1.02954632727304</v>
       </c>
       <c r="K20">
-        <v>1.0274969906175</v>
+        <v>1.033242792676711</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.010310083426378</v>
+        <v>1.037132282164672</v>
       </c>
       <c r="N20">
-        <v>1.010923174349152</v>
+        <v>1.013907522380177</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9882573348799409</v>
+        <v>1.022398324308282</v>
       </c>
       <c r="D21">
-        <v>1.010268943284418</v>
+        <v>1.029188796056915</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9903530067431268</v>
+        <v>1.032569323653453</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040794485217707</v>
+        <v>1.034492649573574</v>
       </c>
       <c r="J21">
-        <v>1.018254350657655</v>
+        <v>1.029083585704608</v>
       </c>
       <c r="K21">
-        <v>1.025058344510034</v>
+        <v>1.032794468584965</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.005519478612929</v>
+        <v>1.036162276357106</v>
       </c>
       <c r="N21">
-        <v>1.010115679492658</v>
+        <v>1.013754757192481</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9852778209485443</v>
+        <v>1.021854866504995</v>
       </c>
       <c r="D22">
-        <v>1.008072750541013</v>
+        <v>1.028774753887017</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9865936332906038</v>
+        <v>1.031827144177039</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039729300566414</v>
+        <v>1.03434606578355</v>
       </c>
       <c r="J22">
-        <v>1.016678066520647</v>
+        <v>1.028792241298664</v>
       </c>
       <c r="K22">
-        <v>1.023485963246222</v>
+        <v>1.032512014562444</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.002435434765317</v>
+        <v>1.035552462608399</v>
       </c>
       <c r="N22">
-        <v>1.009595401738747</v>
+        <v>1.013658568459161</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.986863657994461</v>
+        <v>1.022142931589543</v>
       </c>
       <c r="D23">
-        <v>1.009241353633218</v>
+        <v>1.028994227401309</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.9885946858166714</v>
+        <v>1.032220520649421</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040297259339935</v>
+        <v>1.034423895574108</v>
       </c>
       <c r="J23">
-        <v>1.017517406100229</v>
+        <v>1.028946726096821</v>
       </c>
       <c r="K23">
-        <v>1.024323310571124</v>
+        <v>1.032661802907312</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.004077382465389</v>
+        <v>1.035875729731026</v>
       </c>
       <c r="N23">
-        <v>1.009872433152597</v>
+        <v>1.013709573003027</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9929695216260617</v>
+        <v>1.023277721948717</v>
       </c>
       <c r="D24">
-        <v>1.013747308505367</v>
+        <v>1.029858665592632</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.9962967618584667</v>
+        <v>1.033770686051573</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042461631894293</v>
+        <v>1.034727573686828</v>
       </c>
       <c r="J24">
-        <v>1.020740916061682</v>
+        <v>1.029554078334034</v>
       </c>
       <c r="K24">
-        <v>1.027537231704094</v>
+        <v>1.033250299062865</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.010389224119063</v>
+        <v>1.03714854551876</v>
       </c>
       <c r="N24">
-        <v>1.010936505573574</v>
+        <v>1.013910081123061</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9997894425294993</v>
+        <v>1.024595987196539</v>
       </c>
       <c r="D25">
-        <v>1.01879176891572</v>
+        <v>1.030862548246915</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.004897676880118</v>
+        <v>1.03557259714058</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044832117791389</v>
+        <v>1.035074293816397</v>
       </c>
       <c r="J25">
-        <v>1.024323894851706</v>
+        <v>1.030257099123394</v>
       </c>
       <c r="K25">
-        <v>1.031105206203175</v>
+        <v>1.033930675816643</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.017420435533908</v>
+        <v>1.038625841258271</v>
       </c>
       <c r="N25">
-        <v>1.012119451540418</v>
+        <v>1.014142141644606</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_87/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_87/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.025648509051531</v>
+        <v>1.005032193112137</v>
       </c>
       <c r="D2">
-        <v>1.031663787263372</v>
+        <v>1.022677216131513</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.037012208397243</v>
+        <v>1.011510869607781</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035346229762267</v>
+        <v>1.046615549205905</v>
       </c>
       <c r="J2">
-        <v>1.030816355624612</v>
+        <v>1.027063426885909</v>
       </c>
       <c r="K2">
-        <v>1.034471253199687</v>
+        <v>1.033829409087048</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.039804308982901</v>
+        <v>1.022812135620168</v>
       </c>
       <c r="N2">
-        <v>1.014326721090837</v>
+        <v>1.013024059892069</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026413331397954</v>
+        <v>1.008732648667868</v>
       </c>
       <c r="D3">
-        <v>1.032245844570696</v>
+        <v>1.02542324728212</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.038058878356229</v>
+        <v>1.016180655983912</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035540994721242</v>
+        <v>1.047851237804244</v>
       </c>
       <c r="J3">
-        <v>1.031221554070435</v>
+        <v>1.028988051022239</v>
       </c>
       <c r="K3">
-        <v>1.034862528631744</v>
+        <v>1.035740847274712</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.040660071045232</v>
+        <v>1.026610605172732</v>
       </c>
       <c r="N3">
-        <v>1.014460439170337</v>
+        <v>1.013659638946765</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02690849058097</v>
+        <v>1.011080341362701</v>
       </c>
       <c r="D4">
-        <v>1.032622597489315</v>
+        <v>1.027166837091549</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.038736779765034</v>
+        <v>1.019144660125501</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035665774165116</v>
+        <v>1.048624302546767</v>
       </c>
       <c r="J4">
-        <v>1.031483335274174</v>
+        <v>1.030204795835776</v>
       </c>
       <c r="K4">
-        <v>1.035115133404566</v>
+        <v>1.036948076406929</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.041213843072462</v>
+        <v>1.029017388988218</v>
       </c>
       <c r="N4">
-        <v>1.014546821393938</v>
+        <v>1.014061471753411</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.027116718119278</v>
+        <v>1.012056457828005</v>
       </c>
       <c r="D5">
-        <v>1.032781012211452</v>
+        <v>1.027892085766029</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.03902192076283</v>
+        <v>1.020377400552535</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035717932310691</v>
+        <v>1.048943078987927</v>
       </c>
       <c r="J5">
-        <v>1.031593289070143</v>
+        <v>1.030709638093293</v>
       </c>
       <c r="K5">
-        <v>1.035221189288547</v>
+        <v>1.037448678252274</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.041446656644217</v>
+        <v>1.030017360180422</v>
       </c>
       <c r="N5">
-        <v>1.014583102049638</v>
+        <v>1.014228201115847</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.027151684066425</v>
+        <v>1.012219725174968</v>
       </c>
       <c r="D6">
-        <v>1.032807612322736</v>
+        <v>1.028013409293915</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.039069806031055</v>
+        <v>1.020583615043557</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035726672330742</v>
+        <v>1.048996241768243</v>
       </c>
       <c r="J6">
-        <v>1.031611744959388</v>
+        <v>1.03079401666372</v>
       </c>
       <c r="K6">
-        <v>1.035238988344849</v>
+        <v>1.037532330634811</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.041485747496796</v>
+        <v>1.030184576333415</v>
       </c>
       <c r="N6">
-        <v>1.014589191701821</v>
+        <v>1.014256068219721</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02691127268341</v>
+        <v>1.011093426487971</v>
       </c>
       <c r="D7">
-        <v>1.032624714127427</v>
+        <v>1.027176558105548</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.038740589239962</v>
+        <v>1.019161183813541</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035666472281091</v>
+        <v>1.048628586330107</v>
       </c>
       <c r="J7">
-        <v>1.03148480487257</v>
+        <v>1.030211567575427</v>
       </c>
       <c r="K7">
-        <v>1.035116551076705</v>
+        <v>1.036954792434922</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.04121695390934</v>
+        <v>1.029030796677355</v>
       </c>
       <c r="N7">
-        <v>1.014547306313579</v>
+        <v>1.014063708175531</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025906927932406</v>
+        <v>1.006292667873937</v>
       </c>
       <c r="D8">
-        <v>1.031860469824288</v>
+        <v>1.023612269602674</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.037365803126916</v>
+        <v>1.013101279203954</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035412309159276</v>
+        <v>1.047038722647581</v>
       </c>
       <c r="J8">
-        <v>1.030953378458003</v>
+        <v>1.027719894700571</v>
       </c>
       <c r="K8">
-        <v>1.034603605276426</v>
+        <v>1.03448162147037</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.04009350957546</v>
+        <v>1.024106662196955</v>
       </c>
       <c r="N8">
-        <v>1.014371940992642</v>
+        <v>1.013240843938471</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.024139264464532</v>
+        <v>0.997459067553169</v>
       </c>
       <c r="D9">
-        <v>1.030514787082385</v>
+        <v>1.017066766945369</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.034948169238433</v>
+        <v>1.00195870905579</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034954926092173</v>
+        <v>1.04402816538211</v>
       </c>
       <c r="J9">
-        <v>1.030013848355922</v>
+        <v>1.023101872870955</v>
       </c>
       <c r="K9">
-        <v>1.033695362772354</v>
+        <v>1.029888886014709</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.038114182045377</v>
+        <v>1.015020087306538</v>
       </c>
       <c r="N9">
-        <v>1.014061850817192</v>
+        <v>1.011715968746007</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.022962338711782</v>
+        <v>0.9912948462995431</v>
       </c>
       <c r="D10">
-        <v>1.029618443367496</v>
+        <v>1.012510435944639</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.033339775844418</v>
+        <v>0.9941845854150404</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034643648885162</v>
+        <v>1.041871705128131</v>
       </c>
       <c r="J10">
-        <v>1.029385479550304</v>
+        <v>1.019858154095596</v>
       </c>
       <c r="K10">
-        <v>1.03308699851809</v>
+        <v>1.026657425647395</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.036794906089588</v>
+        <v>1.008659638855201</v>
       </c>
       <c r="N10">
-        <v>1.013854423200603</v>
+        <v>1.01064508903301</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.022453095595742</v>
+        <v>0.9885547293935849</v>
       </c>
       <c r="D11">
-        <v>1.029230521553725</v>
+        <v>1.010488289514715</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.032644133013884</v>
+        <v>0.990728184094</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034507363871323</v>
+        <v>1.040900350243789</v>
       </c>
       <c r="J11">
-        <v>1.029112923722397</v>
+        <v>1.018411519997337</v>
       </c>
       <c r="K11">
-        <v>1.0328229034554</v>
+        <v>1.025215085990921</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.036223722073807</v>
+        <v>1.005827097421977</v>
       </c>
       <c r="N11">
-        <v>1.013764442983252</v>
+        <v>1.010167558374086</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022263997655393</v>
+        <v>0.9875257471334636</v>
       </c>
       <c r="D12">
-        <v>1.029086461943331</v>
+        <v>1.00972945884187</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.032385861685054</v>
+        <v>0.989430033075466</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034456516884185</v>
+        <v>1.040533701407512</v>
       </c>
       <c r="J12">
-        <v>1.02901161505776</v>
+        <v>1.017867585885669</v>
       </c>
       <c r="K12">
-        <v>1.032724707335139</v>
+        <v>1.024672601850972</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.036011570472438</v>
+        <v>1.004762577884457</v>
       </c>
       <c r="N12">
-        <v>1.013730996235242</v>
+        <v>1.009988017139126</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.022304557173483</v>
+        <v>0.9877469819685711</v>
       </c>
       <c r="D13">
-        <v>1.029117361752489</v>
+        <v>1.009892585093189</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.03244125625437</v>
+        <v>0.9897091500354412</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034467433891133</v>
+        <v>1.040612616592427</v>
       </c>
       <c r="J13">
-        <v>1.029033349229667</v>
+        <v>1.017984564283416</v>
       </c>
       <c r="K13">
-        <v>1.03274577521913</v>
+        <v>1.02478927567452</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.036057077173183</v>
+        <v>1.004991491665936</v>
       </c>
       <c r="N13">
-        <v>1.013738171760634</v>
+        <v>1.010026628774848</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.022437463516683</v>
+        <v>0.9884699045996744</v>
       </c>
       <c r="D14">
-        <v>1.029218612882758</v>
+        <v>1.010425723647139</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.032622781743801</v>
+        <v>0.9906211745180559</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034503165422653</v>
+        <v>1.040870163340859</v>
       </c>
       <c r="J14">
-        <v>1.029104550924297</v>
+        <v>1.01836669427028</v>
       </c>
       <c r="K14">
-        <v>1.032814788555948</v>
+        <v>1.025170383037572</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.036206185315047</v>
+        <v>1.005739360249557</v>
       </c>
       <c r="N14">
-        <v>1.013761678753992</v>
+        <v>1.010152762128762</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.022519359182567</v>
+        <v>0.9889138234550936</v>
       </c>
       <c r="D15">
-        <v>1.029281001311592</v>
+        <v>1.010753175630925</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.032734641701</v>
+        <v>0.9911811862420056</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03452515104865</v>
+        <v>1.041028065865814</v>
       </c>
       <c r="J15">
-        <v>1.029148411486449</v>
+        <v>1.018601255669029</v>
       </c>
       <c r="K15">
-        <v>1.032857296804687</v>
+        <v>1.02540429534824</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.036298057322499</v>
+        <v>1.006198486512705</v>
       </c>
       <c r="N15">
-        <v>1.013776159006975</v>
+        <v>1.010230187463314</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.022996143498615</v>
+        <v>0.9914751600831933</v>
       </c>
       <c r="D16">
-        <v>1.02964419283381</v>
+        <v>1.012643575163771</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.033385960343042</v>
+        <v>0.9944120134897577</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034652662129156</v>
+        <v>1.041935362226367</v>
       </c>
       <c r="J16">
-        <v>1.029403558409689</v>
+        <v>1.019953253369744</v>
       </c>
       <c r="K16">
-        <v>1.03310451162994</v>
+        <v>1.026752219153377</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.036832815266291</v>
+        <v>1.008845922247844</v>
       </c>
       <c r="N16">
-        <v>1.013860391493774</v>
+        <v>1.010676482441142</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.023295318768535</v>
+        <v>0.9930624626250515</v>
       </c>
       <c r="D17">
-        <v>1.02987206823144</v>
+        <v>1.013815974128355</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.03379473069221</v>
+        <v>0.9964139788534986</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034732245369298</v>
+        <v>1.042494285728206</v>
       </c>
       <c r="J17">
-        <v>1.029563480757251</v>
+        <v>1.020789875652166</v>
       </c>
       <c r="K17">
-        <v>1.033259404540634</v>
+        <v>1.027586019483707</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.037168274473496</v>
+        <v>1.010485177523007</v>
       </c>
       <c r="N17">
-        <v>1.013913185000255</v>
+        <v>1.010952668473502</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.023469858577912</v>
+        <v>0.9939814986332168</v>
       </c>
       <c r="D18">
-        <v>1.030005003372908</v>
+        <v>1.014495087729262</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.034033236854907</v>
+        <v>0.9975730456939766</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034778520159653</v>
+        <v>1.042816683058199</v>
       </c>
       <c r="J18">
-        <v>1.029656715534816</v>
+        <v>1.021273821865422</v>
       </c>
       <c r="K18">
-        <v>1.033349686300734</v>
+        <v>1.02806822140304</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.037363948962091</v>
+        <v>1.011433803443869</v>
       </c>
       <c r="N18">
-        <v>1.013943962838448</v>
+        <v>1.011112434615553</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.023529378191747</v>
+        <v>0.9942937261645517</v>
       </c>
       <c r="D19">
-        <v>1.030050334040723</v>
+        <v>1.014725855552149</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.034114574383222</v>
+        <v>0.9979668128788717</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034794274091528</v>
+        <v>1.042926005096853</v>
       </c>
       <c r="J19">
-        <v>1.029688498483194</v>
+        <v>1.021438157367219</v>
       </c>
       <c r="K19">
-        <v>1.033380459047769</v>
+        <v>1.028231945265829</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.037430670034133</v>
+        <v>1.011756001889398</v>
       </c>
       <c r="N19">
-        <v>1.01395445460859</v>
+        <v>1.011166687953014</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.023263216365469</v>
+        <v>0.9928928681924177</v>
       </c>
       <c r="D20">
-        <v>1.029847617352096</v>
+        <v>1.013690677988438</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.033750865496877</v>
+        <v>0.9962000864037222</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034723721809813</v>
+        <v>1.04243469364523</v>
       </c>
       <c r="J20">
-        <v>1.02954632727304</v>
+        <v>1.020700533899439</v>
       </c>
       <c r="K20">
-        <v>1.033242792676711</v>
+        <v>1.0274969906175</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.037132282164672</v>
+        <v>1.010310083426377</v>
       </c>
       <c r="N20">
-        <v>1.013907522380177</v>
+        <v>1.010923174349152</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.022398324308282</v>
+        <v>0.9882573348799415</v>
       </c>
       <c r="D21">
-        <v>1.029188796056915</v>
+        <v>1.010268943284419</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.032569323653453</v>
+        <v>0.9903530067431271</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034492649573574</v>
+        <v>1.040794485217707</v>
       </c>
       <c r="J21">
-        <v>1.029083585704608</v>
+        <v>1.018254350657655</v>
       </c>
       <c r="K21">
-        <v>1.032794468584965</v>
+        <v>1.025058344510035</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.036162276357106</v>
+        <v>1.00551947861293</v>
       </c>
       <c r="N21">
-        <v>1.013754757192481</v>
+        <v>1.010115679492658</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.021854866504995</v>
+        <v>0.9852778209485452</v>
       </c>
       <c r="D22">
-        <v>1.028774753887017</v>
+        <v>1.008072750541014</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.031827144177039</v>
+        <v>0.9865936332906046</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03434606578355</v>
+        <v>1.039729300566415</v>
       </c>
       <c r="J22">
-        <v>1.028792241298664</v>
+        <v>1.016678066520648</v>
       </c>
       <c r="K22">
-        <v>1.032512014562444</v>
+        <v>1.023485963246223</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.035552462608399</v>
+        <v>1.002435434765317</v>
       </c>
       <c r="N22">
-        <v>1.013658568459161</v>
+        <v>1.009595401738747</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.022142931589543</v>
+        <v>0.9868636579944612</v>
       </c>
       <c r="D23">
-        <v>1.028994227401309</v>
+        <v>1.009241353633218</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.032220520649421</v>
+        <v>0.9885946858166712</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034423895574108</v>
+        <v>1.040297259339936</v>
       </c>
       <c r="J23">
-        <v>1.028946726096821</v>
+        <v>1.017517406100229</v>
       </c>
       <c r="K23">
-        <v>1.032661802907312</v>
+        <v>1.024323310571124</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.035875729731026</v>
+        <v>1.004077382465389</v>
       </c>
       <c r="N23">
-        <v>1.013709573003027</v>
+        <v>1.009872433152597</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.023277721948717</v>
+        <v>0.9929695216260621</v>
       </c>
       <c r="D24">
-        <v>1.029858665592632</v>
+        <v>1.013747308505368</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.033770686051573</v>
+        <v>0.9962967618584669</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034727573686828</v>
+        <v>1.042461631894294</v>
       </c>
       <c r="J24">
-        <v>1.029554078334034</v>
+        <v>1.020740916061682</v>
       </c>
       <c r="K24">
-        <v>1.033250299062865</v>
+        <v>1.027537231704095</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.03714854551876</v>
+        <v>1.010389224119063</v>
       </c>
       <c r="N24">
-        <v>1.013910081123061</v>
+        <v>1.010936505573575</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.024595987196539</v>
+        <v>0.9997894425294994</v>
       </c>
       <c r="D25">
-        <v>1.030862548246915</v>
+        <v>1.01879176891572</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.03557259714058</v>
+        <v>1.004897676880119</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035074293816397</v>
+        <v>1.044832117791389</v>
       </c>
       <c r="J25">
-        <v>1.030257099123394</v>
+        <v>1.024323894851706</v>
       </c>
       <c r="K25">
-        <v>1.033930675816643</v>
+        <v>1.031105206203175</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.038625841258271</v>
+        <v>1.017420435533908</v>
       </c>
       <c r="N25">
-        <v>1.014142141644606</v>
+        <v>1.012119451540418</v>
       </c>
     </row>
   </sheetData>
